--- a/pred_ohlcv/54_21/2020-01-24 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-952782.0872220492</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1006746.069822049</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1004441.653922049</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1004441.653922049</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1010662.590922049</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1004219.392826176</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1017017.404126176</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-984017.404126176</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1021037.051826176</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1021006.051826176</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1027100.743526176</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1111109.429426176</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1111078.429426176</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1141786.019526176</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1012048.818226176</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1085291.742926176</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1105291.742926176</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1139996.888326176</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1203784.531744269</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1169659.735144269</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1169628.735144269</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1169800.845344269</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1169800.845344269</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1162807.991844269</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1147382.163844269</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1132047.714444269</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1151867.16954427</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1167894.30894427</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1155095.782944269</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1158529.891144269</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1143842.582144269</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1153843.313544269</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1154736.858644269</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1284736.858644269</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1289876.024344269</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1323999.781144269</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1302301.385744269</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1305304.643644269</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1305304.643644269</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1305304.643644269</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1332327.140844269</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1339858.425944269</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1339858.425944269</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1313331.425944269</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1313331.425944269</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1356795.880844269</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1238619.639844269</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1221396.606444269</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1226434.333644269</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1224215.060544269</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1141539.867844269</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1267639.867844269</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1266852.898144269</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1388864.803559369</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1684745.79225937</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1684713.79225937</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1694713.79225937</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1694713.79225937</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2371061.1643972</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2371193.1643972</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2371193.1643972</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2395445.5107972</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2390861.0234972</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2365716.4046972</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2365782.4046972</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2365749.4046972</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2301261.015688733</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2301380.752188733</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1691089.252688733</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1691089.252688733</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-952782.0872220492</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-959247.6544220493</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-959052.4877220494</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1004441.653922049</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1010662.590922049</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1004219.392826176</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1017017.404126176</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-984017.404126176</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1021037.051826176</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1021006.051826176</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1027100.743526176</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1111109.429426176</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1111078.429426176</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1141786.019526176</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1012048.818226176</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1085291.742926176</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1139996.888326176</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1203784.531744269</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1169659.735144269</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1169628.735144269</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1169800.845344269</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1169800.845344269</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1162807.991844269</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1147382.163844269</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1155095.782944269</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1158529.891144269</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1143842.582144269</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1153843.313544269</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1154736.858644269</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1284736.858644269</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1289876.024344269</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1323999.781144269</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1302301.385744269</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1305304.643644269</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1305304.643644269</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1305304.643644269</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1332327.140844269</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1339858.425944269</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1339858.425944269</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1313331.425944269</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1313331.425944269</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1356795.880844269</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1238619.639844269</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1221396.606444269</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1226434.333644269</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1224215.060544269</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1141539.867844269</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1267639.867844269</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1266852.898144269</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1388864.803559369</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1684745.79225937</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1684713.79225937</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1694713.79225937</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1694713.79225937</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2371061.1643972</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2371193.1643972</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2371193.1643972</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2395445.5107972</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2390861.0234972</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2365716.4046972</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2365749.4046972</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2301261.015688733</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2301413.752188733</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1691089.252688733</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1691089.252688733</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
